--- a/data/new_data/bitumen_terminal_new_data.xlsx
+++ b/data/new_data/bitumen_terminal_new_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadyl\Documents\GitHub\generation-of-building-diagrams\data\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A9A81-284A-4DEF-A0FB-A51E5A13D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002CA7C9-E907-4F43-BD99-3A27D2ED8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,31 +81,31 @@
     <t>port</t>
   </si>
   <si>
-    <t>data/new_data/images_to_png/Елец_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Калининград_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Кнайпеда_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Колпино_1_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Колпино_2_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Сальск_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Талдом_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Тюмень_нов_цвет.png</t>
-  </si>
-  <si>
-    <t>data/new_data/images_to_png/Яссы_нов_цвет.png</t>
+    <t>../data/new_data/images_to_png/Елец_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Калининград_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Кнайпеда_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Колпино_1_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Колпино_2_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Сальск_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Талдом_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Тюмень_нов_цвет.png</t>
+  </si>
+  <si>
+    <t>../data/new_data/images_to_png/Яссы_нов_цвет.png</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
